--- a/biology/Botanique/Ardisia_dom/Ardisia_dom.xlsx
+++ b/biology/Botanique/Ardisia_dom/Ardisia_dom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ardisia dom Cheek est une espèce de plantes à fleurs de la famille des Primulaceae[2] et du genre Ardisia, endémique du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ardisia dom Cheek est une espèce de plantes à fleurs de la famille des Primulaceae et du genre Ardisia, endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique dom fait référence au village de Dom, dans la région du Nord-Ouest, où les premiers spécimens ont été découverts. Cependant, Martin Cheek, auteur de l'étude, précise que c'est également le prénom de son fils[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique dom fait référence au village de Dom, dans la région du Nord-Ouest, où les premiers spécimens ont été découverts. Cependant, Martin Cheek, auteur de l'étude, précise que c'est également le prénom de son fils.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste d'une hauteur de 1,5 à 2 m[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste d'une hauteur de 1,5 à 2 m. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux individus seulement ont été observés sur deux sites différents dans les forêts de Dom[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux individus seulement ont été observés sur deux sites différents dans les forêts de Dom.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est celui des sous-bois de la forêt submontagnarde, à une altitude comprise entre 1 600 et 1 830 m[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est celui des sous-bois de la forêt submontagnarde, à une altitude comprise entre 1 600 et 1 830 m.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est tellement rare que même une activité humaine très faible peut la mettre en péril. Elle est donc considérée comme en danger critique d'extinction (CR), selon l'évaluation de l'UICN[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est tellement rare que même une activité humaine très faible peut la mettre en péril. Elle est donc considérée comme en danger critique d'extinction (CR), selon l'évaluation de l'UICN.
 </t>
         </is>
       </c>
